--- a/temp/allTeachers.xlsx
+++ b/temp/allTeachers.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -37,128 +37,8 @@
         <bgColor/>
       </patternFill>
     </fill>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
   </fills>
-  <borders count="16">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -170,53 +50,8 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="12" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="13" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="14" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="14" fillId="15" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="16" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -530,143 +365,67 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>32165195</v>
+        <v>16516515</v>
       </c>
       <c r="B2" t="str">
-        <v>mamani mamani</v>
+        <v>Jose</v>
       </c>
       <c r="C2" t="str">
-        <v>jose cosa modificado</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-53081.258922122055</v>
-      </c>
-      <c r="E2" t="str"/>
-      <c r="F2" t="str"/>
-      <c r="G2" t="str"/>
-      <c r="H2" t="str"/>
-      <c r="I2" t="str"/>
-      <c r="J2" s="2">
-        <v>-53081.258922122055</v>
-      </c>
-      <c r="K2" s="3">
-        <v>-53081.258922122055</v>
-      </c>
-      <c r="L2" t="str"/>
+        <v>Jose</v>
+      </c>
+      <c r="D2" t="str">
+        <v>12/21/1933</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Av. La calle</v>
+      </c>
+      <c r="G2" t="str">
+        <v>216516</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Ninguna</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Superior</v>
+      </c>
+      <c r="J2" t="str">
+        <v>02/08/2010</v>
+      </c>
+      <c r="K2" t="str">
+        <v>11/01/2018</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Mecanica automotris</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>98196516</v>
+        <v>65165165</v>
       </c>
       <c r="B3" t="str">
-        <v>vkjdvndj</v>
+        <v>cksjndc</v>
       </c>
       <c r="C3" t="str">
-        <v>kjnkjn</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-53081.25873693687</v>
+        <v>kjnkj</v>
+      </c>
+      <c r="D3" t="str">
+        <v>12/31/0000</v>
       </c>
       <c r="E3" t="str"/>
       <c r="F3" t="str"/>
       <c r="G3" t="str"/>
       <c r="H3" t="str"/>
       <c r="I3" t="str"/>
-      <c r="J3" s="5">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="K3" s="6">
-        <v>-53081.25873693687</v>
+      <c r="J3" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="K3" t="str">
+        <v>12/31/0000</v>
       </c>
       <c r="L3" t="str"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>95951616</v>
-      </c>
-      <c r="B4" t="str">
-        <v>vjdnvj</v>
-      </c>
-      <c r="C4" t="str">
-        <v>jnvjf</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="E4" t="str"/>
-      <c r="F4" t="str"/>
-      <c r="G4" t="str"/>
-      <c r="H4" t="str"/>
-      <c r="I4" t="str"/>
-      <c r="J4" s="8">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="K4" s="9">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="L4" t="str"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3652856255</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Quispe Aquino</v>
-      </c>
-      <c r="C5" t="str"/>
-      <c r="D5" s="10">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="E5" t="str"/>
-      <c r="F5" t="str"/>
-      <c r="G5" t="str"/>
-      <c r="H5" t="str"/>
-      <c r="I5" t="str"/>
-      <c r="J5" s="11">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="K5" s="12">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="L5" t="str"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>165165165</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Como Sa</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Nombnre SA</v>
-      </c>
-      <c r="D6" s="13">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="E6" t="str">
-        <v>M</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Av. Lllll</v>
-      </c>
-      <c r="G6" t="str">
-        <v>51651</v>
-      </c>
-      <c r="H6" t="str">
-        <v>cjdsh</v>
-      </c>
-      <c r="I6" t="str">
-        <v>jhbj</v>
-      </c>
-      <c r="J6" s="14">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="K6" s="15">
-        <v>-53081.25873693687</v>
-      </c>
-      <c r="L6" t="str">
-        <v>Sin Especialidad</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/temp/allTeachers.xlsx
+++ b/temp/allTeachers.xlsx
@@ -365,51 +365,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>16516515</v>
+        <v>48692702</v>
       </c>
       <c r="B2" t="str">
-        <v>Jose</v>
+        <v>ssssssssssssssssss</v>
       </c>
       <c r="C2" t="str">
-        <v>Jose</v>
+        <v>computacion</v>
       </c>
       <c r="D2" t="str">
-        <v>12/21/1933</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Av. La calle</v>
-      </c>
-      <c r="G2" t="str">
-        <v>216516</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Ninguna</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Superior</v>
-      </c>
+        <v>12/31/0000</v>
+      </c>
+      <c r="E2" t="str"/>
+      <c r="F2" t="str"/>
+      <c r="G2" t="str"/>
+      <c r="H2" t="str"/>
+      <c r="I2" t="str"/>
       <c r="J2" t="str">
-        <v>02/08/2010</v>
+        <v>12/31/0000</v>
       </c>
       <c r="K2" t="str">
-        <v>11/01/2018</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Mecanica automotris</v>
-      </c>
+        <v>12/31/0000</v>
+      </c>
+      <c r="L2" t="str"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>65165165</v>
-      </c>
-      <c r="B3" t="str">
-        <v>cksjndc</v>
-      </c>
+        <v>65165515</v>
+      </c>
+      <c r="B3" t="str"/>
       <c r="C3" t="str">
-        <v>kjnkj</v>
+        <v>enfermeria</v>
       </c>
       <c r="D3" t="str">
         <v>12/31/0000</v>
@@ -427,6 +413,84 @@
       </c>
       <c r="L3" t="str"/>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>65651651</v>
+      </c>
+      <c r="B4" t="str">
+        <v>gfgfg</v>
+      </c>
+      <c r="C4" t="str">
+        <v>enfermeria</v>
+      </c>
+      <c r="D4" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="E4" t="str"/>
+      <c r="F4" t="str"/>
+      <c r="G4" t="str"/>
+      <c r="H4" t="str"/>
+      <c r="I4" t="str"/>
+      <c r="J4" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="L4" t="str"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>84848485</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ana</v>
+      </c>
+      <c r="C5" t="str">
+        <v>ana</v>
+      </c>
+      <c r="D5" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="E5" t="str"/>
+      <c r="F5" t="str"/>
+      <c r="G5" t="str"/>
+      <c r="H5" t="str"/>
+      <c r="I5" t="str"/>
+      <c r="J5" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="L5" t="str"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>89898115</v>
+      </c>
+      <c r="B6" t="str">
+        <v>pancho</v>
+      </c>
+      <c r="C6" t="str">
+        <v>pancho</v>
+      </c>
+      <c r="D6" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="E6" t="str"/>
+      <c r="F6" t="str"/>
+      <c r="G6" t="str"/>
+      <c r="H6" t="str"/>
+      <c r="I6" t="str"/>
+      <c r="J6" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="K6" t="str">
+        <v>12/31/0000</v>
+      </c>
+      <c r="L6" t="str"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
